--- a/Database/school.xlsx
+++ b/Database/school.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artm8\Desktop\ИП 2023\DiaryTelgram\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16BB73D-A57C-4A20-A179-CF23E3B9A5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD71E8A-E81C-4836-A130-C097893170B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
-    <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>breakfast1</t>
   </si>
@@ -71,12 +70,6 @@
   </si>
   <si>
     <t>weekday</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>username</t>
   </si>
 </sst>
 </file>
@@ -431,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECC3B-80DC-4DEC-A217-229FBD265769}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -581,27 +574,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAA08D0-9A5B-428D-92DC-C7F8B21904CE}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Database/school.xlsx
+++ b/Database/school.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artm8\Desktop\ИП 2023\DiaryTelgram\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD71E8A-E81C-4836-A130-C097893170B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6AB186-061F-44F4-A70B-28A3ADE74838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
+    <workbookView xWindow="7320" yWindow="-45" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>breakfast1</t>
   </si>
@@ -70,16 +71,245 @@
   </si>
   <si>
     <t>weekday</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -106,8 +336,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -424,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECC3B-80DC-4DEC-A217-229FBD265769}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -574,4 +805,913 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5B1DAD-0190-400B-BF59-2356922E1B62}">
+  <dimension ref="A1:V56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="22" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1">
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1">
+        <v>86</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1">
+        <v>88</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1">
+        <v>92</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1">
+        <v>94</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>52</v>
+      </c>
+      <c r="C29" s="1">
+        <v>96</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1">
+        <v>98</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>55</v>
+      </c>
+      <c r="C31" s="1">
+        <v>100</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1">
+        <v>100</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1">
+        <v>100</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>59</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>60</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>62</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>63</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>64</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>66</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>67</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>68</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>70</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>71</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>72</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>73</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>76</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>78</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>81</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>83</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>86</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>88</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>91</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>93</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>96</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>98</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>100</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Database/school.xlsx
+++ b/Database/school.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artm8\Desktop\ИП 2023\DiaryTelgram\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3751ECF-4910-41D6-B1A6-1283C11BC351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70333D69-1278-4135-8AFC-547610C00495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
+    <workbookView xWindow="6915" yWindow="525" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="6" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
     <sheet name="scores" sheetId="2" r:id="rId2"/>
+    <sheet name="monday" sheetId="3" r:id="rId3"/>
+    <sheet name="tuesday" sheetId="4" r:id="rId4"/>
+    <sheet name="wednesday" sheetId="5" r:id="rId5"/>
+    <sheet name="thursday" sheetId="6" r:id="rId6"/>
+    <sheet name="friday" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>breakfast1</t>
   </si>
@@ -137,13 +142,70 @@
   </si>
   <si>
     <t>informatics</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>Общество</t>
+  </si>
+  <si>
+    <t>Математика, 41</t>
+  </si>
+  <si>
+    <t>Математика, 305</t>
+  </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
+    <t>Право</t>
+  </si>
+  <si>
+    <t>Экономика</t>
+  </si>
+  <si>
+    <t>Математика, 30</t>
+  </si>
+  <si>
+    <t>Математика, 42</t>
+  </si>
+  <si>
+    <t>Английский (Сафонова)</t>
+  </si>
+  <si>
+    <t>Английский (Перепеляк)</t>
+  </si>
+  <si>
+    <t>Доп Русский, 202</t>
+  </si>
+  <si>
+    <t>Математика, 28</t>
+  </si>
+  <si>
+    <t>Русский, 16</t>
+  </si>
+  <si>
+    <t>Математика, 25</t>
+  </si>
+  <si>
+    <t>Доп Математика, 202</t>
+  </si>
+  <si>
+    <t>кузьмин</t>
+  </si>
+  <si>
+    <t>мартыновский</t>
+  </si>
+  <si>
+    <t>Физика</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +216,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -180,10 +250,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -656,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5B1DAD-0190-400B-BF59-2356922E1B62}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,4 +1649,444 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2287B3-7941-4481-B2CE-127AB43E9AED}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E7282-D75F-436E-846B-A3C422FC4A30}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6339CF9-1388-4ABF-BD0E-632EABA7BE22}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96B0239-F49D-442E-86EA-482BB3D8E823}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B198D-22A6-4704-B644-2D11146A97D7}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database/school.xlsx
+++ b/Database/school.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artm8\Desktop\ИП 2023\DiaryTelgram\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70333D69-1278-4135-8AFC-547610C00495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C66A9BD-690B-4B13-B066-BC8D18974B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6915" yWindow="525" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="6" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
+    <workbookView xWindow="-7440" yWindow="345" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="3" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="77">
   <si>
     <t>breakfast1</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Математика, 305</t>
   </si>
   <si>
-    <t>Английский</t>
-  </si>
-  <si>
     <t>Право</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>Математика, 25</t>
   </si>
   <si>
-    <t>Доп Математика, 202</t>
-  </si>
-  <si>
     <t>кузьмин</t>
   </si>
   <si>
@@ -199,13 +193,91 @@
   </si>
   <si>
     <t>Физика</t>
+  </si>
+  <si>
+    <t>белоусова</t>
+  </si>
+  <si>
+    <t>дудкин</t>
+  </si>
+  <si>
+    <t>злыдарев</t>
+  </si>
+  <si>
+    <t>ковалева</t>
+  </si>
+  <si>
+    <t>костенко</t>
+  </si>
+  <si>
+    <t>наумова</t>
+  </si>
+  <si>
+    <t>масякин</t>
+  </si>
+  <si>
+    <t>шаркова</t>
+  </si>
+  <si>
+    <t>тагирова</t>
+  </si>
+  <si>
+    <t>хасанова</t>
+  </si>
+  <si>
+    <t>шумакова</t>
+  </si>
+  <si>
+    <t>похлебухина</t>
+  </si>
+  <si>
+    <t>ханина</t>
+  </si>
+  <si>
+    <t>новикова</t>
+  </si>
+  <si>
+    <t>чуркин</t>
+  </si>
+  <si>
+    <t>калужина</t>
+  </si>
+  <si>
+    <t>Биология</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>Литература</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>Доп Математика</t>
+  </si>
+  <si>
+    <t>Доп Общество</t>
+  </si>
+  <si>
+    <t>Литература (Елагина)</t>
+  </si>
+  <si>
+    <t>Доп Литература</t>
+  </si>
+  <si>
+    <t>Литература, 48 (Гусарова)</t>
+  </si>
+  <si>
+    <t>История</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +301,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,11 +330,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1653,7 +1734,1254 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2287B3-7941-4481-B2CE-127AB43E9AED}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E7282-D75F-436E-846B-A3C422FC4A30}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6339CF9-1388-4ABF-BD0E-632EABA7BE22}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96B0239-F49D-442E-86EA-482BB3D8E823}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1662,189 +2990,489 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="3">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E7282-D75F-436E-846B-A3C422FC4A30}">
-  <dimension ref="A1:H3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B198D-22A6-4704-B644-2D11146A97D7}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6339CF9-1388-4ABF-BD0E-632EABA7BE22}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="3">
@@ -1871,222 +3499,315 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96B0239-F49D-442E-86EA-482BB3D8E823}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B198D-22A6-4704-B644-2D11146A97D7}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database/school.xlsx
+++ b/Database/school.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artm8\Desktop\ИП 2023\DiaryTelgram\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355EE90C-E599-4E11-BB9F-65F69C7E9F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02523B8-6456-4382-9AB6-C23FE5438480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7020" yWindow="1110" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -54,24 +54,6 @@
     <t>lunch2</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
     <t>weekday</t>
   </si>
   <si>
@@ -319,6 +301,24 @@
   </si>
   <si>
     <t>щи, макароны со шницелем и салат "Солнечный"</t>
+  </si>
+  <si>
+    <t>monday</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>wednesday</t>
+  </si>
+  <si>
+    <t>thursday</t>
+  </si>
+  <si>
+    <t>friday</t>
+  </si>
+  <si>
+    <t>saturday</t>
   </si>
 </sst>
 </file>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECC3B-80DC-4DEC-A217-229FBD265769}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +715,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -732,102 +732,103 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -835,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5B1DAD-0190-400B-BF59-2356922E1B62}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,55 +869,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -4422,7 +4423,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4448,329 +4449,329 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4803,7 +4804,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -4829,410 +4830,410 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5265,7 +5266,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -5291,353 +5292,353 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5668,7 +5669,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -5694,425 +5695,425 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
         <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
         <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -6143,7 +6144,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -6169,308 +6170,308 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Database/school.xlsx
+++ b/Database/school.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artm8\Desktop\ИП 2023\DiaryTelgram\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02523B8-6456-4382-9AB6-C23FE5438480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A7EDFC-1AD6-489D-AC57-E37EB639D13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>russian</t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
     <t>profmath</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
     <t>гречка с тефтелей и огурцом</t>
   </si>
   <si>
-    <t>суп-лапша, гороховое пюре с рыбной фрикаделькой и витаминным салатом.</t>
-  </si>
-  <si>
     <t>пшенная каша, бутерброд горячий и фруто-чай</t>
   </si>
   <si>
@@ -319,6 +313,12 @@
   </si>
   <si>
     <t>saturday</t>
+  </si>
+  <si>
+    <t>суп-лапша, гороховое пюре с рыбной фрикаделькой и витаминный салат.</t>
+  </si>
+  <si>
+    <t>subject</t>
   </si>
 </sst>
 </file>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AECC3B-80DC-4DEC-A217-229FBD265769}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,98 +732,98 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
         <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
         <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -836,9 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5B1DAD-0190-400B-BF59-2356922E1B62}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -869,55 +867,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -4423,7 +4421,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -4449,329 +4447,329 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
         <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
         <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
         <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4804,7 +4802,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -4830,410 +4828,410 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5266,7 +5264,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -5292,353 +5290,353 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
         <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
       <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
         <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5669,7 +5667,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -5695,425 +5693,425 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6144,7 +6142,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -6170,308 +6168,308 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Database/school.xlsx
+++ b/Database/school.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artm8\Desktop\ИП 2023\DiaryTelgram\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A7EDFC-1AD6-489D-AC57-E37EB639D13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97F195-70F3-4FE2-BEA8-AFD13ABA462B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
-    <sheet name="scores" sheetId="2" r:id="rId2"/>
-    <sheet name="monday" sheetId="3" r:id="rId3"/>
-    <sheet name="tuesday" sheetId="4" r:id="rId4"/>
-    <sheet name="wednesday" sheetId="5" r:id="rId5"/>
-    <sheet name="thursday" sheetId="6" r:id="rId6"/>
-    <sheet name="friday" sheetId="7" r:id="rId7"/>
+    <sheet name="scores0" sheetId="2" r:id="rId2"/>
+    <sheet name="scores" sheetId="8" r:id="rId3"/>
+    <sheet name="monday" sheetId="3" r:id="rId4"/>
+    <sheet name="tuesday" sheetId="4" r:id="rId5"/>
+    <sheet name="wednesday" sheetId="5" r:id="rId6"/>
+    <sheet name="thursday" sheetId="6" r:id="rId7"/>
+    <sheet name="friday" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="93">
   <si>
     <t>breakfast1</t>
   </si>
@@ -836,7 +837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5B1DAD-0190-400B-BF59-2356922E1B62}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:Q102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4404,6 +4407,3409 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE376F21-FCF4-49DD-8D4C-694EC005A43C}">
+  <dimension ref="A1:CX58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="30" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="39" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="44" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="54" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="81" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="101" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="103" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>36</v>
+      </c>
+      <c r="R2" s="1">
+        <v>38</v>
+      </c>
+      <c r="S2" s="1">
+        <v>39</v>
+      </c>
+      <c r="T2" s="1">
+        <v>40</v>
+      </c>
+      <c r="U2" s="1">
+        <v>42</v>
+      </c>
+      <c r="V2" s="1">
+        <v>43</v>
+      </c>
+      <c r="W2" s="1">
+        <v>44</v>
+      </c>
+      <c r="X2" s="1">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>58</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>60</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>63</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>66</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>67</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>68</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>70</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>71</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>72</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>73</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>76</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>78</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>81</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>86</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>88</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>91</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>93</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>96</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>98</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1">
+        <v>52</v>
+      </c>
+      <c r="L3" s="1">
+        <v>58</v>
+      </c>
+      <c r="M3" s="1">
+        <v>64</v>
+      </c>
+      <c r="N3" s="1">
+        <v>66</v>
+      </c>
+      <c r="O3" s="1">
+        <v>68</v>
+      </c>
+      <c r="P3" s="1">
+        <v>70</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>72</v>
+      </c>
+      <c r="R3" s="1">
+        <v>74</v>
+      </c>
+      <c r="S3" s="1">
+        <v>76</v>
+      </c>
+      <c r="T3" s="1">
+        <v>78</v>
+      </c>
+      <c r="U3" s="1">
+        <v>80</v>
+      </c>
+      <c r="V3" s="1">
+        <v>82</v>
+      </c>
+      <c r="W3" s="1">
+        <v>84</v>
+      </c>
+      <c r="X3" s="1">
+        <v>86</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>88</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>90</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>92</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>94</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>96</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>98</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>100</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1">
+        <v>5</v>
+      </c>
+      <c r="T4" s="1">
+        <v>5</v>
+      </c>
+      <c r="U4" s="1">
+        <v>5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>5</v>
+      </c>
+      <c r="W4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1">
+        <v>33</v>
+      </c>
+      <c r="L5" s="1">
+        <v>36</v>
+      </c>
+      <c r="M5" s="1">
+        <v>38</v>
+      </c>
+      <c r="N5" s="1">
+        <v>39</v>
+      </c>
+      <c r="O5" s="1">
+        <v>40</v>
+      </c>
+      <c r="P5" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>42</v>
+      </c>
+      <c r="R5" s="1">
+        <v>43</v>
+      </c>
+      <c r="S5" s="1">
+        <v>44</v>
+      </c>
+      <c r="T5" s="1">
+        <v>45</v>
+      </c>
+      <c r="U5" s="1">
+        <v>46</v>
+      </c>
+      <c r="V5" s="1">
+        <v>47</v>
+      </c>
+      <c r="W5" s="1">
+        <v>48</v>
+      </c>
+      <c r="X5" s="1">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>52</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>53</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>54</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>55</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>56</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>57</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>58</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>59</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>60</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>61</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>62</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>64</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>66</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>68</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>70</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>72</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>74</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>76</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>78</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>80</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>81</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>83</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>85</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>87</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>89</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>91</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>93</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>95</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>97</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>99</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1">
+        <v>33</v>
+      </c>
+      <c r="M6" s="1">
+        <v>36</v>
+      </c>
+      <c r="N6" s="1">
+        <v>38</v>
+      </c>
+      <c r="O6" s="1">
+        <v>39</v>
+      </c>
+      <c r="P6" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>42</v>
+      </c>
+      <c r="R6" s="1">
+        <v>43</v>
+      </c>
+      <c r="S6" s="1">
+        <v>44</v>
+      </c>
+      <c r="T6" s="1">
+        <v>46</v>
+      </c>
+      <c r="U6" s="1">
+        <v>47</v>
+      </c>
+      <c r="V6" s="1">
+        <v>48</v>
+      </c>
+      <c r="W6" s="1">
+        <v>49</v>
+      </c>
+      <c r="X6" s="1">
+        <v>51</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>52</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>53</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>55</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>57</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>58</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>60</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>61</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>62</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>64</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>65</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>66</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>68</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>69</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>70</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>71</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>73</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>74</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>75</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>77</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>78</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>79</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>80</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>82</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>84</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>86</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>88</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>90</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>91</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>93</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>95</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>97</v>
+      </c>
+      <c r="BE6" s="4">
+        <v>99</v>
+      </c>
+      <c r="BF6" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43</v>
+      </c>
+      <c r="J7" s="1">
+        <v>46</v>
+      </c>
+      <c r="K7" s="1">
+        <v>48</v>
+      </c>
+      <c r="L7" s="1">
+        <v>51</v>
+      </c>
+      <c r="M7" s="1">
+        <v>54</v>
+      </c>
+      <c r="N7" s="1">
+        <v>56</v>
+      </c>
+      <c r="O7" s="1">
+        <v>59</v>
+      </c>
+      <c r="P7" s="1">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>64</v>
+      </c>
+      <c r="R7" s="1">
+        <v>67</v>
+      </c>
+      <c r="S7" s="1">
+        <v>70</v>
+      </c>
+      <c r="T7" s="1">
+        <v>72</v>
+      </c>
+      <c r="U7" s="1">
+        <v>75</v>
+      </c>
+      <c r="V7" s="1">
+        <v>78</v>
+      </c>
+      <c r="W7" s="1">
+        <v>80</v>
+      </c>
+      <c r="X7" s="1">
+        <v>83</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>85</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>88</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>90</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>93</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>95</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>98</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1">
+        <v>23</v>
+      </c>
+      <c r="M8" s="1">
+        <v>25</v>
+      </c>
+      <c r="N8" s="1">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1">
+        <v>30</v>
+      </c>
+      <c r="P8" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>34</v>
+      </c>
+      <c r="R8" s="1">
+        <v>36</v>
+      </c>
+      <c r="S8" s="1">
+        <v>38</v>
+      </c>
+      <c r="T8" s="1">
+        <v>39</v>
+      </c>
+      <c r="U8" s="1">
+        <v>40</v>
+      </c>
+      <c r="V8" s="1">
+        <v>42</v>
+      </c>
+      <c r="W8" s="1">
+        <v>43</v>
+      </c>
+      <c r="X8" s="1">
+        <v>44</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>47</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>48</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>49</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>52</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>53</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>54</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>55</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>57</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>58</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>59</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>61</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>62</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>63</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>64</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>66</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>67</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>68</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>69</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>71</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>72</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>73</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>74</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>76</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>77</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>78</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>79</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>82</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>84</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>86</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>89</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>91</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>93</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>96</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>98</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1">
+        <v>28</v>
+      </c>
+      <c r="I9" s="1">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1">
+        <v>34</v>
+      </c>
+      <c r="K9" s="1">
+        <v>36</v>
+      </c>
+      <c r="L9" s="1">
+        <v>38</v>
+      </c>
+      <c r="M9" s="1">
+        <v>40</v>
+      </c>
+      <c r="N9" s="1">
+        <v>42</v>
+      </c>
+      <c r="O9" s="1">
+        <v>43</v>
+      </c>
+      <c r="P9" s="1">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>47</v>
+      </c>
+      <c r="R9" s="1">
+        <v>49</v>
+      </c>
+      <c r="S9" s="1">
+        <v>51</v>
+      </c>
+      <c r="T9" s="1">
+        <v>52</v>
+      </c>
+      <c r="U9" s="1">
+        <v>54</v>
+      </c>
+      <c r="V9" s="1">
+        <v>56</v>
+      </c>
+      <c r="W9" s="1">
+        <v>58</v>
+      </c>
+      <c r="X9" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>67</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>69</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>71</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>72</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>75</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>78</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>81</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>84</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>87</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>90</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>93</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>96</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1">
+        <v>26</v>
+      </c>
+      <c r="J10" s="1">
+        <v>30</v>
+      </c>
+      <c r="K10" s="1">
+        <v>34</v>
+      </c>
+      <c r="L10" s="1">
+        <v>37</v>
+      </c>
+      <c r="M10" s="1">
+        <v>39</v>
+      </c>
+      <c r="N10" s="1">
+        <v>40</v>
+      </c>
+      <c r="O10" s="1">
+        <v>41</v>
+      </c>
+      <c r="P10" s="1">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>44</v>
+      </c>
+      <c r="R10" s="1">
+        <v>45</v>
+      </c>
+      <c r="S10" s="1">
+        <v>46</v>
+      </c>
+      <c r="T10" s="1">
+        <v>47</v>
+      </c>
+      <c r="U10" s="1">
+        <v>49</v>
+      </c>
+      <c r="V10" s="1">
+        <v>50</v>
+      </c>
+      <c r="W10" s="1">
+        <v>51</v>
+      </c>
+      <c r="X10" s="1">
+        <v>52</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>54</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>55</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>56</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>57</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>59</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>60</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>61</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>62</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>64</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>65</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>66</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>67</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>68</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>72</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>80</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>84</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>88</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>92</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>96</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1">
+        <v>11</v>
+      </c>
+      <c r="N11" s="1">
+        <v>12</v>
+      </c>
+      <c r="O11" s="1">
+        <v>13</v>
+      </c>
+      <c r="P11" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>15</v>
+      </c>
+      <c r="R11" s="1">
+        <v>16</v>
+      </c>
+      <c r="S11" s="1">
+        <v>17</v>
+      </c>
+      <c r="T11" s="1">
+        <v>18</v>
+      </c>
+      <c r="U11" s="1">
+        <v>19</v>
+      </c>
+      <c r="V11" s="1">
+        <v>20</v>
+      </c>
+      <c r="W11" s="1">
+        <v>21</v>
+      </c>
+      <c r="X11" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>47</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>58</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>59</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>60</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>61</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>62</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>63</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>64</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>65</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>66</v>
+      </c>
+      <c r="BQ11" s="1">
+        <v>67</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>68</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>69</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>70</v>
+      </c>
+      <c r="BU11" s="1">
+        <v>71</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>72</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>73</v>
+      </c>
+      <c r="BX11" s="1">
+        <v>74</v>
+      </c>
+      <c r="BY11" s="1">
+        <v>75</v>
+      </c>
+      <c r="BZ11" s="1">
+        <v>76</v>
+      </c>
+      <c r="CA11" s="1">
+        <v>77</v>
+      </c>
+      <c r="CB11" s="1">
+        <v>78</v>
+      </c>
+      <c r="CC11" s="1">
+        <v>79</v>
+      </c>
+      <c r="CD11" s="1">
+        <v>80</v>
+      </c>
+      <c r="CE11" s="1">
+        <v>81</v>
+      </c>
+      <c r="CF11" s="1">
+        <v>82</v>
+      </c>
+      <c r="CG11" s="1">
+        <v>83</v>
+      </c>
+      <c r="CH11" s="1">
+        <v>84</v>
+      </c>
+      <c r="CI11" s="1">
+        <v>85</v>
+      </c>
+      <c r="CJ11" s="1">
+        <v>86</v>
+      </c>
+      <c r="CK11" s="1">
+        <v>87</v>
+      </c>
+      <c r="CL11" s="1">
+        <v>88</v>
+      </c>
+      <c r="CM11" s="1">
+        <v>89</v>
+      </c>
+      <c r="CN11" s="1">
+        <v>90</v>
+      </c>
+      <c r="CO11" s="1">
+        <v>91</v>
+      </c>
+      <c r="CP11" s="1">
+        <v>92</v>
+      </c>
+      <c r="CQ11" s="1">
+        <v>93</v>
+      </c>
+      <c r="CR11" s="1">
+        <v>94</v>
+      </c>
+      <c r="CS11" s="1">
+        <v>95</v>
+      </c>
+      <c r="CT11" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU11" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV11" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW11" s="1">
+        <v>99</v>
+      </c>
+      <c r="CX11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10</v>
+      </c>
+      <c r="M12" s="1">
+        <v>11</v>
+      </c>
+      <c r="N12" s="1">
+        <v>12</v>
+      </c>
+      <c r="O12" s="1">
+        <v>13</v>
+      </c>
+      <c r="P12" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>15</v>
+      </c>
+      <c r="R12" s="1">
+        <v>16</v>
+      </c>
+      <c r="S12" s="1">
+        <v>17</v>
+      </c>
+      <c r="T12" s="1">
+        <v>18</v>
+      </c>
+      <c r="U12" s="1">
+        <v>19</v>
+      </c>
+      <c r="V12" s="1">
+        <v>20</v>
+      </c>
+      <c r="W12" s="1">
+        <v>21</v>
+      </c>
+      <c r="X12" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>47</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>58</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>59</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>60</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>61</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>62</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>63</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>64</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>65</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>66</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>67</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>68</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>69</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>70</v>
+      </c>
+      <c r="BU12" s="1">
+        <v>71</v>
+      </c>
+      <c r="BV12" s="1">
+        <v>72</v>
+      </c>
+      <c r="BW12" s="1">
+        <v>73</v>
+      </c>
+      <c r="BX12" s="1">
+        <v>74</v>
+      </c>
+      <c r="BY12" s="1">
+        <v>75</v>
+      </c>
+      <c r="BZ12" s="1">
+        <v>76</v>
+      </c>
+      <c r="CA12" s="1">
+        <v>77</v>
+      </c>
+      <c r="CB12" s="1">
+        <v>78</v>
+      </c>
+      <c r="CC12" s="1">
+        <v>79</v>
+      </c>
+      <c r="CD12" s="1">
+        <v>80</v>
+      </c>
+      <c r="CE12" s="1">
+        <v>81</v>
+      </c>
+      <c r="CF12" s="1">
+        <v>82</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>83</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>84</v>
+      </c>
+      <c r="CI12" s="1">
+        <v>85</v>
+      </c>
+      <c r="CJ12" s="1">
+        <v>86</v>
+      </c>
+      <c r="CK12" s="1">
+        <v>87</v>
+      </c>
+      <c r="CL12" s="1">
+        <v>88</v>
+      </c>
+      <c r="CM12" s="1">
+        <v>89</v>
+      </c>
+      <c r="CN12" s="1">
+        <v>90</v>
+      </c>
+      <c r="CO12" s="1">
+        <v>91</v>
+      </c>
+      <c r="CP12" s="1">
+        <v>92</v>
+      </c>
+      <c r="CQ12" s="1">
+        <v>93</v>
+      </c>
+      <c r="CR12" s="1">
+        <v>94</v>
+      </c>
+      <c r="CS12" s="1">
+        <v>95</v>
+      </c>
+      <c r="CT12" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU12" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV12" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW12" s="1">
+        <v>99</v>
+      </c>
+      <c r="CX12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1">
+        <v>8</v>
+      </c>
+      <c r="K13" s="1">
+        <v>9</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10</v>
+      </c>
+      <c r="M13" s="1">
+        <v>11</v>
+      </c>
+      <c r="N13" s="1">
+        <v>12</v>
+      </c>
+      <c r="O13" s="1">
+        <v>13</v>
+      </c>
+      <c r="P13" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>15</v>
+      </c>
+      <c r="R13" s="1">
+        <v>16</v>
+      </c>
+      <c r="S13" s="1">
+        <v>17</v>
+      </c>
+      <c r="T13" s="1">
+        <v>18</v>
+      </c>
+      <c r="U13" s="1">
+        <v>19</v>
+      </c>
+      <c r="V13" s="1">
+        <v>20</v>
+      </c>
+      <c r="W13" s="1">
+        <v>21</v>
+      </c>
+      <c r="X13" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>47</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>58</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>59</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>60</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>61</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>62</v>
+      </c>
+      <c r="BM13" s="1">
+        <v>63</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>64</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>65</v>
+      </c>
+      <c r="BP13" s="1">
+        <v>66</v>
+      </c>
+      <c r="BQ13" s="1">
+        <v>67</v>
+      </c>
+      <c r="BR13" s="1">
+        <v>68</v>
+      </c>
+      <c r="BS13" s="1">
+        <v>69</v>
+      </c>
+      <c r="BT13" s="1">
+        <v>70</v>
+      </c>
+      <c r="BU13" s="1">
+        <v>71</v>
+      </c>
+      <c r="BV13" s="1">
+        <v>72</v>
+      </c>
+      <c r="BW13" s="1">
+        <v>73</v>
+      </c>
+      <c r="BX13" s="1">
+        <v>74</v>
+      </c>
+      <c r="BY13" s="1">
+        <v>75</v>
+      </c>
+      <c r="BZ13" s="1">
+        <v>76</v>
+      </c>
+      <c r="CA13" s="1">
+        <v>77</v>
+      </c>
+      <c r="CB13" s="1">
+        <v>78</v>
+      </c>
+      <c r="CC13" s="1">
+        <v>79</v>
+      </c>
+      <c r="CD13" s="1">
+        <v>80</v>
+      </c>
+      <c r="CE13" s="1">
+        <v>81</v>
+      </c>
+      <c r="CF13" s="1">
+        <v>82</v>
+      </c>
+      <c r="CG13" s="1">
+        <v>83</v>
+      </c>
+      <c r="CH13" s="1">
+        <v>84</v>
+      </c>
+      <c r="CI13" s="1">
+        <v>85</v>
+      </c>
+      <c r="CJ13" s="1">
+        <v>86</v>
+      </c>
+      <c r="CK13" s="1">
+        <v>87</v>
+      </c>
+      <c r="CL13" s="1">
+        <v>88</v>
+      </c>
+      <c r="CM13" s="1">
+        <v>89</v>
+      </c>
+      <c r="CN13" s="1">
+        <v>90</v>
+      </c>
+      <c r="CO13" s="1">
+        <v>91</v>
+      </c>
+      <c r="CP13" s="1">
+        <v>92</v>
+      </c>
+      <c r="CQ13" s="1">
+        <v>93</v>
+      </c>
+      <c r="CR13" s="1">
+        <v>94</v>
+      </c>
+      <c r="CS13" s="1">
+        <v>95</v>
+      </c>
+      <c r="CT13" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU13" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV13" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW13" s="1">
+        <v>99</v>
+      </c>
+      <c r="CX13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1">
+        <v>19</v>
+      </c>
+      <c r="L14" s="1">
+        <v>21</v>
+      </c>
+      <c r="M14" s="1">
+        <v>24</v>
+      </c>
+      <c r="N14" s="1">
+        <v>26</v>
+      </c>
+      <c r="O14" s="1">
+        <v>28</v>
+      </c>
+      <c r="P14" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>32</v>
+      </c>
+      <c r="R14" s="1">
+        <v>34</v>
+      </c>
+      <c r="S14" s="1">
+        <v>36</v>
+      </c>
+      <c r="T14" s="1">
+        <v>38</v>
+      </c>
+      <c r="U14" s="1">
+        <v>40</v>
+      </c>
+      <c r="V14" s="1">
+        <v>42</v>
+      </c>
+      <c r="W14" s="1">
+        <v>44</v>
+      </c>
+      <c r="X14" s="1">
+        <v>45</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>46</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>49</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>50</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>52</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>53</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>54</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>56</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>57</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>58</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>59</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>61</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>62</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>63</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>65</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>66</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>67</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>69</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>70</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>71</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>72</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>74</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>76</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>78</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>80</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>82</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>84</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>86</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>88</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>90</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>92</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>94</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>96</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>98</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1">
+        <v>8</v>
+      </c>
+      <c r="K15" s="1">
+        <v>9</v>
+      </c>
+      <c r="L15" s="1">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1">
+        <v>11</v>
+      </c>
+      <c r="N15" s="1">
+        <v>12</v>
+      </c>
+      <c r="O15" s="1">
+        <v>13</v>
+      </c>
+      <c r="P15" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>15</v>
+      </c>
+      <c r="R15" s="1">
+        <v>16</v>
+      </c>
+      <c r="S15" s="1">
+        <v>17</v>
+      </c>
+      <c r="T15" s="1">
+        <v>18</v>
+      </c>
+      <c r="U15" s="1">
+        <v>19</v>
+      </c>
+      <c r="V15" s="1">
+        <v>20</v>
+      </c>
+      <c r="W15" s="1">
+        <v>21</v>
+      </c>
+      <c r="X15" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>47</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>58</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>59</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>60</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>61</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>62</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>63</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>64</v>
+      </c>
+      <c r="BO15" s="1">
+        <v>65</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>66</v>
+      </c>
+      <c r="BQ15" s="1">
+        <v>67</v>
+      </c>
+      <c r="BR15" s="1">
+        <v>68</v>
+      </c>
+      <c r="BS15" s="1">
+        <v>69</v>
+      </c>
+      <c r="BT15" s="1">
+        <v>70</v>
+      </c>
+      <c r="BU15" s="1">
+        <v>71</v>
+      </c>
+      <c r="BV15" s="1">
+        <v>72</v>
+      </c>
+      <c r="BW15" s="1">
+        <v>73</v>
+      </c>
+      <c r="BX15" s="1">
+        <v>74</v>
+      </c>
+      <c r="BY15" s="1">
+        <v>75</v>
+      </c>
+      <c r="BZ15" s="1">
+        <v>76</v>
+      </c>
+      <c r="CA15" s="1">
+        <v>77</v>
+      </c>
+      <c r="CB15" s="1">
+        <v>78</v>
+      </c>
+      <c r="CC15" s="1">
+        <v>79</v>
+      </c>
+      <c r="CD15" s="1">
+        <v>80</v>
+      </c>
+      <c r="CE15" s="1">
+        <v>81</v>
+      </c>
+      <c r="CF15" s="1">
+        <v>82</v>
+      </c>
+      <c r="CG15" s="1">
+        <v>83</v>
+      </c>
+      <c r="CH15" s="1">
+        <v>84</v>
+      </c>
+      <c r="CI15" s="1">
+        <v>85</v>
+      </c>
+      <c r="CJ15" s="1">
+        <v>86</v>
+      </c>
+      <c r="CK15" s="1">
+        <v>87</v>
+      </c>
+      <c r="CL15" s="1">
+        <v>88</v>
+      </c>
+      <c r="CM15" s="1">
+        <v>89</v>
+      </c>
+      <c r="CN15" s="1">
+        <v>90</v>
+      </c>
+      <c r="CO15" s="1">
+        <v>91</v>
+      </c>
+      <c r="CP15" s="1">
+        <v>92</v>
+      </c>
+      <c r="CQ15" s="1">
+        <v>93</v>
+      </c>
+      <c r="CR15" s="1">
+        <v>94</v>
+      </c>
+      <c r="CS15" s="1">
+        <v>95</v>
+      </c>
+      <c r="CT15" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU15" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV15" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW15" s="1">
+        <v>99</v>
+      </c>
+      <c r="CX15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+      <c r="K16" s="1">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1">
+        <v>13</v>
+      </c>
+      <c r="M16" s="1">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1">
+        <v>15</v>
+      </c>
+      <c r="O16" s="1">
+        <v>17</v>
+      </c>
+      <c r="P16" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>19</v>
+      </c>
+      <c r="R16" s="1">
+        <v>20</v>
+      </c>
+      <c r="S16" s="1">
+        <v>22</v>
+      </c>
+      <c r="T16" s="1">
+        <v>23</v>
+      </c>
+      <c r="U16" s="1">
+        <v>24</v>
+      </c>
+      <c r="V16" s="1">
+        <v>25</v>
+      </c>
+      <c r="W16" s="1">
+        <v>27</v>
+      </c>
+      <c r="X16" s="1">
+        <v>28</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>29</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>32</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>33</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>34</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>35</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>37</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>38</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>39</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>42</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>43</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>44</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>45</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>47</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>48</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>49</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>50</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>52</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>53</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>54</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>55</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>57</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>58</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>59</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>60</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>62</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>63</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>64</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>65</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>67</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>68</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>69</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>70</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>72</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>73</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>74</v>
+      </c>
+      <c r="BJ16" s="1">
+        <v>75</v>
+      </c>
+      <c r="BK16" s="1">
+        <v>77</v>
+      </c>
+      <c r="BL16" s="1">
+        <v>78</v>
+      </c>
+      <c r="BM16" s="1">
+        <v>79</v>
+      </c>
+      <c r="BN16" s="1">
+        <v>80</v>
+      </c>
+      <c r="BO16" s="1">
+        <v>82</v>
+      </c>
+      <c r="BP16" s="1">
+        <v>83</v>
+      </c>
+      <c r="BQ16" s="1">
+        <v>84</v>
+      </c>
+      <c r="BR16" s="1">
+        <v>85</v>
+      </c>
+      <c r="BS16" s="1">
+        <v>87</v>
+      </c>
+      <c r="BT16" s="1">
+        <v>88</v>
+      </c>
+      <c r="BU16" s="1">
+        <v>89</v>
+      </c>
+      <c r="BV16" s="1">
+        <v>90</v>
+      </c>
+      <c r="BW16" s="1">
+        <v>92</v>
+      </c>
+      <c r="BX16" s="1">
+        <v>93</v>
+      </c>
+      <c r="BY16" s="1">
+        <v>94</v>
+      </c>
+      <c r="BZ16" s="1">
+        <v>95</v>
+      </c>
+      <c r="CA16" s="1">
+        <v>97</v>
+      </c>
+      <c r="CB16" s="1">
+        <v>98</v>
+      </c>
+      <c r="CC16" s="1">
+        <v>99</v>
+      </c>
+      <c r="CD16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1">
+        <v>19</v>
+      </c>
+      <c r="K17" s="1">
+        <v>21</v>
+      </c>
+      <c r="L17" s="1">
+        <v>23</v>
+      </c>
+      <c r="M17" s="1">
+        <v>26</v>
+      </c>
+      <c r="N17" s="1">
+        <v>28</v>
+      </c>
+      <c r="O17" s="1">
+        <v>30</v>
+      </c>
+      <c r="P17" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>33</v>
+      </c>
+      <c r="R17" s="1">
+        <v>34</v>
+      </c>
+      <c r="S17" s="1">
+        <v>35</v>
+      </c>
+      <c r="T17" s="1">
+        <v>36</v>
+      </c>
+      <c r="U17" s="1">
+        <v>37</v>
+      </c>
+      <c r="V17" s="1">
+        <v>38</v>
+      </c>
+      <c r="W17" s="1">
+        <v>39</v>
+      </c>
+      <c r="X17" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>41</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>42</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>43</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>44</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>45</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>46</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>47</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>48</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>49</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>51</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>52</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>53</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>54</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>55</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>56</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>57</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>58</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>59</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>60</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>61</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>62</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>63</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>68</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>73</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>77</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>82</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>87</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>91</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>96</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2287B3-7941-4481-B2CE-127AB43E9AED}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -4781,7 +8187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55E7282-D75F-436E-846B-A3C422FC4A30}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -5243,7 +8649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6339CF9-1388-4ABF-BD0E-632EABA7BE22}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -5648,7 +9054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96B0239-F49D-442E-86EA-482BB3D8E823}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -6123,7 +9529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B198D-22A6-4704-B644-2D11146A97D7}">
   <dimension ref="A1:H19"/>
   <sheetViews>

--- a/Database/school.xlsx
+++ b/Database/school.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artm8\Desktop\ИП 2023\DiaryTelgram\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F97F195-70F3-4FE2-BEA8-AFD13ABA462B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E513C8-1F65-492F-B20E-AAB03D538505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="94">
   <si>
     <t>breakfast1</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>subject</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -4410,7 +4413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE376F21-FCF4-49DD-8D4C-694EC005A43C}">
   <dimension ref="A1:CX58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -7813,7 +7816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2287B3-7941-4481-B2CE-127AB43E9AED}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7906,6 +7911,9 @@
       <c r="A5" t="s">
         <v>53</v>
       </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
       <c r="C5" t="s">
         <v>54</v>
       </c>
@@ -7998,6 +8006,9 @@
       <c r="A9" t="s">
         <v>36</v>
       </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
@@ -8072,6 +8083,9 @@
       <c r="A13" t="s">
         <v>49</v>
       </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
       <c r="C13" t="s">
         <v>62</v>
       </c>
@@ -8137,6 +8151,9 @@
       <c r="A17" t="s">
         <v>52</v>
       </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
       <c r="C17" t="s">
         <v>54</v>
       </c>
@@ -8167,6 +8184,9 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
@@ -8192,7 +8212,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B19" sqref="B19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8498,6 +8518,18 @@
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
       <c r="F13" s="3" t="s">
         <v>56</v>
       </c>
@@ -8629,6 +8661,18 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>56</v>
@@ -8653,8 +8697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6339CF9-1388-4ABF-BD0E-632EABA7BE22}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8907,6 +8951,9 @@
       <c r="E12" t="s">
         <v>26</v>
       </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
       <c r="G12" t="s">
         <v>58</v>
       </c>
@@ -8943,6 +8990,9 @@
       </c>
       <c r="E14" t="s">
         <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
       </c>
       <c r="G14" t="s">
         <v>58</v>

--- a/Database/school.xlsx
+++ b/Database/school.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artm8\Desktop\ИП 2023\DiaryTelgram\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E513C8-1F65-492F-B20E-AAB03D538505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD513946-7FD3-469C-813B-D743F7602B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -4413,30 +4413,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE376F21-FCF4-49DD-8D4C-694EC005A43C}">
   <dimension ref="A1:CX58"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:CJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="39" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="44" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="54" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="81" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="101" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="30" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="39" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="44" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="54" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="81" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="87" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="101" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="103" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -5992,294 +5994,252 @@
         <v>3</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K11" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L11" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M11" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N11" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O11" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P11" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R11" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S11" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T11" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U11" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V11" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="W11" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X11" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y11" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z11" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA11" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB11" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC11" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD11" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE11" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AF11" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AG11" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AH11" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI11" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AJ11" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AK11" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AL11" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AM11" s="1">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AN11" s="1">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AO11" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AP11" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ11" s="1">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AR11" s="1">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AS11" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AT11" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AU11" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AV11" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AW11" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AX11" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AY11" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AZ11" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="BA11" s="1">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="BB11" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="BC11" s="1">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="BD11" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="BE11" s="1">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="BF11" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="BG11" s="1">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="BH11" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="BI11" s="1">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="BJ11" s="1">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="BK11" s="1">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="BL11" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="BM11" s="1">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="BN11" s="1">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="BO11" s="1">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="BP11" s="1">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BQ11" s="1">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="BR11" s="1">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="BS11" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="BT11" s="1">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="BU11" s="1">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="BV11" s="1">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BW11" s="1">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="BX11" s="1">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BY11" s="1">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="BZ11" s="1">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="CA11" s="1">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="CB11" s="1">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="CC11" s="1">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="CD11" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="CE11" s="1">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="CF11" s="1">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="CG11" s="1">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="CH11" s="1">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="CI11" s="1">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="CJ11" s="1">
-        <v>86</v>
-      </c>
-      <c r="CK11" s="1">
-        <v>87</v>
-      </c>
-      <c r="CL11" s="1">
-        <v>88</v>
-      </c>
-      <c r="CM11" s="1">
-        <v>89</v>
-      </c>
-      <c r="CN11" s="1">
-        <v>90</v>
-      </c>
-      <c r="CO11" s="1">
-        <v>91</v>
-      </c>
-      <c r="CP11" s="1">
-        <v>92</v>
-      </c>
-      <c r="CQ11" s="1">
-        <v>93</v>
-      </c>
-      <c r="CR11" s="1">
-        <v>94</v>
-      </c>
-      <c r="CS11" s="1">
-        <v>95</v>
-      </c>
-      <c r="CT11" s="1">
-        <v>96</v>
-      </c>
-      <c r="CU11" s="1">
-        <v>97</v>
-      </c>
-      <c r="CV11" s="1">
-        <v>98</v>
-      </c>
-      <c r="CW11" s="1">
-        <v>99</v>
-      </c>
-      <c r="CX11" s="1">
         <v>100</v>
       </c>
     </row>
@@ -6300,294 +6260,252 @@
         <v>3</v>
       </c>
       <c r="F12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K12" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L12" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M12" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N12" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O12" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P12" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R12" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S12" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T12" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U12" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V12" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="W12" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X12" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y12" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z12" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA12" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB12" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC12" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD12" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE12" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AF12" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AG12" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AH12" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI12" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AJ12" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AK12" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AL12" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AM12" s="1">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AN12" s="1">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AO12" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AP12" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ12" s="1">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AR12" s="1">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AS12" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AT12" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AU12" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AV12" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AW12" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AX12" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AY12" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AZ12" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="BA12" s="1">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="BB12" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="BC12" s="1">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="BD12" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="BE12" s="1">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="BF12" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="BG12" s="1">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="BH12" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="BI12" s="1">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="BJ12" s="1">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="BK12" s="1">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="BL12" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="BM12" s="1">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="BN12" s="1">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="BO12" s="1">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="BP12" s="1">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BQ12" s="1">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="BR12" s="1">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="BS12" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="BT12" s="1">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="BU12" s="1">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="BV12" s="1">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BW12" s="1">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="BX12" s="1">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BY12" s="1">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="BZ12" s="1">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="CA12" s="1">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="CB12" s="1">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="CC12" s="1">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="CD12" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="CE12" s="1">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="CF12" s="1">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="CG12" s="1">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="CH12" s="1">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="CI12" s="1">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="CJ12" s="1">
-        <v>86</v>
-      </c>
-      <c r="CK12" s="1">
-        <v>87</v>
-      </c>
-      <c r="CL12" s="1">
-        <v>88</v>
-      </c>
-      <c r="CM12" s="1">
-        <v>89</v>
-      </c>
-      <c r="CN12" s="1">
-        <v>90</v>
-      </c>
-      <c r="CO12" s="1">
-        <v>91</v>
-      </c>
-      <c r="CP12" s="1">
-        <v>92</v>
-      </c>
-      <c r="CQ12" s="1">
-        <v>93</v>
-      </c>
-      <c r="CR12" s="1">
-        <v>94</v>
-      </c>
-      <c r="CS12" s="1">
-        <v>95</v>
-      </c>
-      <c r="CT12" s="1">
-        <v>96</v>
-      </c>
-      <c r="CU12" s="1">
-        <v>97</v>
-      </c>
-      <c r="CV12" s="1">
-        <v>98</v>
-      </c>
-      <c r="CW12" s="1">
-        <v>99</v>
-      </c>
-      <c r="CX12" s="1">
         <v>100</v>
       </c>
     </row>
@@ -6608,294 +6526,252 @@
         <v>3</v>
       </c>
       <c r="F13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K13" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L13" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M13" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N13" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O13" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P13" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R13" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S13" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T13" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U13" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V13" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="W13" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X13" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y13" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z13" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA13" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB13" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC13" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD13" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE13" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AF13" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AG13" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AH13" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI13" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AJ13" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AK13" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AL13" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AM13" s="1">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AN13" s="1">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AO13" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AP13" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ13" s="1">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AR13" s="1">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AS13" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AT13" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AU13" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AV13" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AW13" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AX13" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AY13" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AZ13" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="BA13" s="1">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="BB13" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="BC13" s="1">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="BD13" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="BE13" s="1">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="BF13" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="BG13" s="1">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="BH13" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="BI13" s="1">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="BJ13" s="1">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="BK13" s="1">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="BL13" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="BM13" s="1">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="BN13" s="1">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="BO13" s="1">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="BP13" s="1">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BQ13" s="1">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="BR13" s="1">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="BS13" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="BT13" s="1">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="BU13" s="1">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="BV13" s="1">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BW13" s="1">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="BX13" s="1">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BY13" s="1">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="BZ13" s="1">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="CA13" s="1">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="CB13" s="1">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="CC13" s="1">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="CD13" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="CE13" s="1">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="CF13" s="1">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="CG13" s="1">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="CH13" s="1">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="CI13" s="1">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="CJ13" s="1">
-        <v>86</v>
-      </c>
-      <c r="CK13" s="1">
-        <v>87</v>
-      </c>
-      <c r="CL13" s="1">
-        <v>88</v>
-      </c>
-      <c r="CM13" s="1">
-        <v>89</v>
-      </c>
-      <c r="CN13" s="1">
-        <v>90</v>
-      </c>
-      <c r="CO13" s="1">
-        <v>91</v>
-      </c>
-      <c r="CP13" s="1">
-        <v>92</v>
-      </c>
-      <c r="CQ13" s="1">
-        <v>93</v>
-      </c>
-      <c r="CR13" s="1">
-        <v>94</v>
-      </c>
-      <c r="CS13" s="1">
-        <v>95</v>
-      </c>
-      <c r="CT13" s="1">
-        <v>96</v>
-      </c>
-      <c r="CU13" s="1">
-        <v>97</v>
-      </c>
-      <c r="CV13" s="1">
-        <v>98</v>
-      </c>
-      <c r="CW13" s="1">
-        <v>99</v>
-      </c>
-      <c r="CX13" s="1">
         <v>100</v>
       </c>
     </row>
@@ -7095,294 +6971,252 @@
         <v>3</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I15" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K15" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L15" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M15" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N15" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O15" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P15" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R15" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S15" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T15" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U15" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V15" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="W15" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X15" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y15" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z15" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA15" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB15" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC15" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AD15" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE15" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AF15" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AG15" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AH15" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI15" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AJ15" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AK15" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AL15" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AM15" s="1">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AN15" s="1">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AO15" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AP15" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ15" s="1">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AR15" s="1">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AS15" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AT15" s="1">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AU15" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AV15" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AW15" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AX15" s="1">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AY15" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AZ15" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="BA15" s="1">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="BB15" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="BC15" s="1">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="BD15" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="BE15" s="1">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="BF15" s="1">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="BG15" s="1">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="BH15" s="1">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="BI15" s="1">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="BJ15" s="1">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="BK15" s="1">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="BL15" s="1">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="BM15" s="1">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="BN15" s="1">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="BO15" s="1">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="BP15" s="1">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="BQ15" s="1">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="BR15" s="1">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="BS15" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="BT15" s="1">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="BU15" s="1">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="BV15" s="1">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BW15" s="1">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="BX15" s="1">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="BY15" s="1">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="BZ15" s="1">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="CA15" s="1">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="CB15" s="1">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="CC15" s="1">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="CD15" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="CE15" s="1">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="CF15" s="1">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="CG15" s="1">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="CH15" s="1">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="CI15" s="1">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="CJ15" s="1">
-        <v>86</v>
-      </c>
-      <c r="CK15" s="1">
-        <v>87</v>
-      </c>
-      <c r="CL15" s="1">
-        <v>88</v>
-      </c>
-      <c r="CM15" s="1">
-        <v>89</v>
-      </c>
-      <c r="CN15" s="1">
-        <v>90</v>
-      </c>
-      <c r="CO15" s="1">
-        <v>91</v>
-      </c>
-      <c r="CP15" s="1">
-        <v>92</v>
-      </c>
-      <c r="CQ15" s="1">
-        <v>93</v>
-      </c>
-      <c r="CR15" s="1">
-        <v>94</v>
-      </c>
-      <c r="CS15" s="1">
-        <v>95</v>
-      </c>
-      <c r="CT15" s="1">
-        <v>96</v>
-      </c>
-      <c r="CU15" s="1">
-        <v>97</v>
-      </c>
-      <c r="CV15" s="1">
-        <v>98</v>
-      </c>
-      <c r="CW15" s="1">
-        <v>99</v>
-      </c>
-      <c r="CX15" s="1">
         <v>100</v>
       </c>
     </row>
@@ -8697,7 +8531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6339CF9-1388-4ABF-BD0E-632EABA7BE22}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/Database/school.xlsx
+++ b/Database/school.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artm8\Desktop\ИП 2023\DiaryTelgram\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artm8\PycharmProjects\DiaryTelgram\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD513946-7FD3-469C-813B-D743F7602B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D59BEB-E78E-43C1-A266-41EB33E144C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{F6AD6265-0F2D-4CED-87A7-CA6BB3F214E3}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="100">
   <si>
     <t>breakfast1</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Право</t>
   </si>
   <si>
-    <t>Экономика</t>
-  </si>
-  <si>
     <t>Математика, 30</t>
   </si>
   <si>
@@ -136,15 +133,9 @@
     <t>Английский (Перепеляк)</t>
   </si>
   <si>
-    <t>Доп Русский, 202</t>
-  </si>
-  <si>
     <t>Математика, 28</t>
   </si>
   <si>
-    <t>Русский, 16</t>
-  </si>
-  <si>
     <t>Математика, 25</t>
   </si>
   <si>
@@ -217,15 +208,9 @@
     <t>География</t>
   </si>
   <si>
-    <t>Доп Математика</t>
-  </si>
-  <si>
     <t>Доп Общество</t>
   </si>
   <si>
-    <t>Литература (Елагина)</t>
-  </si>
-  <si>
     <t>Доп Литература</t>
   </si>
   <si>
@@ -323,6 +308,39 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>История, 202</t>
+  </si>
+  <si>
+    <t>Английский (Сафонова), 202</t>
+  </si>
+  <si>
+    <t>Экономика, 403</t>
+  </si>
+  <si>
+    <t>Математика, 48</t>
+  </si>
+  <si>
+    <t>Экономика, 202</t>
+  </si>
+  <si>
+    <t>Доп Математика, 202</t>
+  </si>
+  <si>
+    <t>Русский язык, 22</t>
+  </si>
+  <si>
+    <t>Русский язык, 25</t>
+  </si>
+  <si>
+    <t>Математика, 16</t>
+  </si>
+  <si>
+    <t>Математика, 202</t>
+  </si>
+  <si>
+    <t>Доп Русский</t>
   </si>
 </sst>
 </file>
@@ -736,98 +754,98 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +891,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -4413,7 +4431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE376F21-FCF4-49DD-8D4C-694EC005A43C}">
   <dimension ref="A1:CX58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:CJ15"/>
     </sheetView>
   </sheetViews>
@@ -4444,7 +4462,7 @@
   <sheetData>
     <row r="1" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -7651,7 +7669,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7661,7 +7679,7 @@
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -7692,7 +7710,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -7709,7 +7727,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -7726,7 +7744,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -7743,13 +7761,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -7760,7 +7778,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -7775,18 +7793,18 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -7801,18 +7819,18 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -7827,24 +7845,24 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -7855,7 +7873,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -7872,7 +7890,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -7887,18 +7905,18 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
@@ -7915,13 +7933,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -7932,7 +7950,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -7949,7 +7967,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -7966,7 +7984,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -7983,13 +8001,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -8000,7 +8018,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -8017,13 +8035,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -8046,7 +8064,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:E19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8054,8 +8072,8 @@
     <col min="1" max="1" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -8088,7 +8106,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
@@ -8103,18 +8121,18 @@
         <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -8129,18 +8147,18 @@
         <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>25</v>
@@ -8155,32 +8173,32 @@
         <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
@@ -8195,18 +8213,18 @@
         <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
@@ -8221,18 +8239,18 @@
         <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
@@ -8247,32 +8265,32 @@
         <v>22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>25</v>
@@ -8287,18 +8305,18 @@
         <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>25</v>
@@ -8313,18 +8331,18 @@
         <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>25</v>
@@ -8339,44 +8357,35 @@
         <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>56</v>
+        <v>88</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>25</v>
@@ -8391,18 +8400,18 @@
         <v>22</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>25</v>
@@ -8417,18 +8426,18 @@
         <v>22</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>25</v>
@@ -8443,32 +8452,32 @@
         <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>25</v>
@@ -8483,39 +8492,30 @@
         <v>22</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>56</v>
+        <v>88</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -8532,7 +8532,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8541,9 +8541,7 @@
     <col min="2" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -8574,363 +8572,333 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
     <sortCondition ref="A2:A19"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8949,10 +8917,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -8983,425 +8953,416 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>48</v>
-      </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -9417,17 +9378,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B198D-22A6-4704-B644-2D11146A97D7}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -9458,308 +9421,332 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -9768,5 +9755,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>